--- a/Christos_first_second/135_remember_first.xlsx
+++ b/Christos_first_second/135_remember_first.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.19</v>
+        <v>-11.91</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>144.08</v>
+        <v>1.73</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>138.62</v>
+        <v>-153.2</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.19</v>
+        <v>17.52</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-29.7</v>
+        <v>1.79</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.8</v>
+        <v>-6.46</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.61</v>
+        <v>-12.71</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147.41</v>
+        <v>2.83</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>-148.19</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135.42</v>
+        <v>-133.25</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-15.9</v>
+        <v>15.72</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120.31</v>
+        <v>-128.74</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130.69</v>
+        <v>-129.46</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139.86</v>
+        <v>8.68</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151.74</v>
+        <v>-127.49</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.89</v>
+        <v>12.61</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.03</v>
+        <v>-136.77</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>145.19</v>
+        <v>-119.43</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -654,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.22</v>
+        <v>7.2</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -668,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>134.95</v>
+        <v>-9.74</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-13.29</v>
+        <v>-2.16</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.15</v>
+        <v>-147.89</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>150.06</v>
+        <v>-9.01</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>140.34</v>
+        <v>-135.22</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -738,7 +738,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-7.32</v>
+        <v>5.17</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>150.79</v>
+        <v>7.31</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>136.07</v>
+        <v>-150.74</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>145.42</v>
+        <v>4.26</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>141.18</v>
+        <v>-145.68</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>134.79</v>
+        <v>5.99</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.52</v>
+        <v>-135.68</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>142.9</v>
+        <v>10.88</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.53</v>
+        <v>-142.33</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -864,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-9.27</v>
+        <v>-137.82</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.71</v>
+        <v>-161.35</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>146.19</v>
+        <v>5.73</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -906,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-11.82</v>
+        <v>12.88</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -920,7 +920,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>136.06</v>
+        <v>-2.97</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>132.27</v>
+        <v>-136.98</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -948,7 +948,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>125.35</v>
+        <v>-0.61</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>133.48</v>
+        <v>18.09</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-17.22</v>
+        <v>-143.42</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.54</v>
+        <v>7.33</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-4.02</v>
+        <v>-137.31</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1018,7 +1018,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>127.84</v>
+        <v>-124.3</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.38</v>
+        <v>-158.66</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>145.45</v>
+        <v>-0.46</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1060,7 +1060,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.67</v>
+        <v>0.04</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-9.130000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.94</v>
+        <v>-135.3</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>143.57</v>
+        <v>-143.2</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1116,7 +1116,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>131.91</v>
+        <v>5.47</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>146.3</v>
+        <v>0.05</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1144,7 +1144,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>135.23</v>
+        <v>-149.8</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1158,7 +1158,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.46</v>
+        <v>12.59</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1172,7 +1172,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>140.35</v>
+        <v>-17.21</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-3.22</v>
+        <v>7.98</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.45</v>
+        <v>-145.44</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.42</v>
+        <v>17.78</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1228,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-17.35</v>
+        <v>0.37</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-3.39</v>
+        <v>-146.51</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1256,7 +1256,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-7.61</v>
+        <v>-135.62</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-9.630000000000001</v>
+        <v>-134.14</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.64</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>133.47</v>
+        <v>-141.24</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>133.16</v>
+        <v>-133.32</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1326,7 +1326,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-11.26</v>
+        <v>4.96</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>130.15</v>
+        <v>17.97</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1354,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8100000000000001</v>
+        <v>11.55</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1368,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.95</v>
+        <v>-139.66</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.65</v>
+        <v>-2.89</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>140.52</v>
+        <v>-6.21</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1410,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>145.91</v>
+        <v>8.09</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1424,7 +1424,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-12.62</v>
+        <v>-144.85</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1438,7 +1438,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>133.47</v>
+        <v>-141.44</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>139.45</v>
+        <v>25.08</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.92</v>
+        <v>-133.44</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1480,7 +1480,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>130.25</v>
+        <v>-115.3</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-20.24</v>
+        <v>-137.5</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.04</v>
+        <v>7.12</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-3.47</v>
+        <v>1.67</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -1536,7 +1536,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.49</v>
+        <v>-6.61</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>127.92</v>
+        <v>-3.88</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1564,7 +1564,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-11.56</v>
+        <v>-134.79</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1578,7 +1578,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>133.14</v>
+        <v>-138.61</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>138.62</v>
+        <v>-141.37</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>139.8</v>
+        <v>11.31</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>130.99</v>
+        <v>-152.74</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.33</v>
+        <v>12.65</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1648,7 +1648,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>144.52</v>
+        <v>-134.91</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.61</v>
+        <v>-5.36</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -1676,7 +1676,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>141.44</v>
+        <v>-0.34</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-10.23</v>
+        <v>21.54</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>140.35</v>
+        <v>-154.47</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>143.13</v>
+        <v>-141.81</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>142</v>
+        <v>-4.32</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>153.1</v>
+        <v>8.83</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.87</v>
+        <v>-7.97</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -1774,7 +1774,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>142.53</v>
+        <v>-2.58</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -1788,7 +1788,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>147.24</v>
+        <v>-136.33</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>131.68</v>
+        <v>20.32</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-10.69</v>
+        <v>11.16</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -1830,7 +1830,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.83</v>
+        <v>-131.57</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-10.82</v>
+        <v>-151.7</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>144.81</v>
+        <v>-149.72</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.72</v>
+        <v>-130.47</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>148.48</v>
+        <v>5.63</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.03</v>
+        <v>-138.18</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -1914,7 +1914,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>162.99</v>
+        <v>5.26</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -1928,7 +1928,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68</v>
+        <v>2.32</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-20.21</v>
+        <v>4.05</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -1956,7 +1956,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>128.45</v>
+        <v>-135.39</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-3.01</v>
+        <v>13.34</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -1984,7 +1984,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>143.46</v>
+        <v>-131.22</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -1998,7 +1998,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>145.39</v>
+        <v>-145.34</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -2012,7 +2012,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-11.09</v>
+        <v>-134.67</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -2026,7 +2026,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-13.25</v>
+        <v>-134.75</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -2040,7 +2040,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>133.84</v>
+        <v>-136.77</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>139.82</v>
+        <v>-147.49</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>140.83</v>
+        <v>-149.17</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -2082,7 +2082,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>156.14</v>
+        <v>10.1</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -2096,7 +2096,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>139.81</v>
+        <v>5.02</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -2110,7 +2110,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>148.67</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-2.77</v>
+        <v>16.45</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>160</v>
+        <v>-144.85</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -2152,7 +2152,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>133.94</v>
+        <v>4.1</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-4.91</v>
+        <v>4.39</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
@@ -2180,7 +2180,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>151.18</v>
+        <v>-150.05</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.18</v>
+        <v>-142.47</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
@@ -2208,7 +2208,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.59</v>
+        <v>-147.31</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>143.11</v>
+        <v>-143.74</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>144.37</v>
+        <v>-121.82</v>
       </c>
       <c r="C133" t="s">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.68</v>
+        <v>16.73</v>
       </c>
       <c r="C134" t="s">
         <v>2</v>
@@ -2264,7 +2264,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>142.27</v>
+        <v>3.08</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
@@ -2278,7 +2278,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>144.69</v>
+        <v>24.21</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -2292,7 +2292,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-9.390000000000001</v>
+        <v>6.34</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.95</v>
+        <v>-162.69</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.67</v>
+        <v>14.69</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>136.5</v>
+        <v>-143.93</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -2348,7 +2348,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.52</v>
+        <v>-141.54</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -2362,7 +2362,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.95</v>
+        <v>-141.81</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>141.26</v>
+        <v>-6.6</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>126.92</v>
+        <v>13.38</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -2404,7 +2404,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>139.26</v>
+        <v>3.8</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -2418,7 +2418,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>137.32</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>146.31</v>
+        <v>-146.74</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -2446,7 +2446,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-10.36</v>
+        <v>-137.78</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -2460,7 +2460,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-14.53</v>
+        <v>-129.24</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>142.11</v>
+        <v>-142.09</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>133.02</v>
+        <v>-3.56</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
@@ -2502,7 +2502,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>131.01</v>
+        <v>23.22</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
@@ -2516,7 +2516,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.199999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
@@ -2530,7 +2530,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-12.66</v>
+        <v>6.28</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
@@ -2544,7 +2544,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.01</v>
+        <v>19.44</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-6.84</v>
+        <v>13.68</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>141.25</v>
+        <v>0.08</v>
       </c>
       <c r="C157" t="s">
         <v>2</v>
@@ -2586,7 +2586,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>137.98</v>
+        <v>9.25</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>155.71</v>
+        <v>-128.05</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -2614,7 +2614,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.43</v>
+        <v>-137.22</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>132.97</v>
+        <v>-146.57</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>142.46</v>
+        <v>-145.01</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -2656,7 +2656,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>149.42</v>
+        <v>5.92</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -2670,7 +2670,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>131.08</v>
+        <v>-3.68</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -2684,7 +2684,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>140.62</v>
+        <v>7.65</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -2698,7 +2698,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>143.67</v>
+        <v>-134.23</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-6.62</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="C167" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>147.01</v>
+        <v>12.7</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
@@ -2740,7 +2740,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>148.55</v>
+        <v>3.7</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
@@ -2754,7 +2754,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-10.47</v>
+        <v>5.74</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
@@ -2768,7 +2768,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>133.78</v>
+        <v>-143.89</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
@@ -2782,7 +2782,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-2.64</v>
+        <v>-131.98</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
@@ -2796,7 +2796,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>138.59</v>
+        <v>-129.77</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.67</v>
+        <v>-144.61</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
@@ -2824,7 +2824,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>152.95</v>
+        <v>6.44</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
@@ -2838,7 +2838,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>129.17</v>
+        <v>-140.39</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
@@ -2852,7 +2852,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>127.31</v>
+        <v>-5.53</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
@@ -2866,7 +2866,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>141.65</v>
+        <v>13.01</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -2880,7 +2880,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>132.86</v>
+        <v>1.59</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-5.25</v>
+        <v>-145.47</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -2908,7 +2908,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-12.76</v>
+        <v>5.25</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
@@ -2922,7 +2922,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>129.32</v>
+        <v>0.49</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -2936,7 +2936,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-13.95</v>
+        <v>11.57</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>144.44</v>
+        <v>-157.58</v>
       </c>
       <c r="C184" t="s">
         <v>2</v>
@@ -2964,7 +2964,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-9.81</v>
+        <v>-140.38</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>91.11</v>
+        <v>6.48</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -2992,7 +2992,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>139.6</v>
+        <v>-134.77</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3006,7 +3006,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>145.26</v>
+        <v>-0.55</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
@@ -3020,7 +3020,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.42</v>
+        <v>-128.11</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -3034,7 +3034,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>120.6</v>
+        <v>5.61</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -3048,7 +3048,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-14.65</v>
+        <v>-108.36</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-2.96</v>
+        <v>-5.22</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
@@ -3076,7 +3076,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>137.12</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -3090,7 +3090,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>147.81</v>
+        <v>20.5</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -3104,7 +3104,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-6.83</v>
+        <v>-2.34</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>146.26</v>
+        <v>-137.95</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -3132,7 +3132,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>149.34</v>
+        <v>-137.98</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>141.83</v>
+        <v>-150.66</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -3160,7 +3160,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>138.19</v>
+        <v>-146.97</v>
       </c>
       <c r="C199" t="s">
         <v>2</v>
@@ -3174,7 +3174,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>141.88</v>
+        <v>0.61</v>
       </c>
       <c r="C200" t="s">
         <v>2</v>
@@ -3188,7 +3188,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-6.01</v>
+        <v>-10.24</v>
       </c>
       <c r="C201" t="s">
         <v>2</v>
@@ -3202,7 +3202,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>140.41</v>
+        <v>-153.17</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>143.4</v>
+        <v>-5.48</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-11.05</v>
+        <v>-127.37</v>
       </c>
       <c r="C204" t="s">
         <v>2</v>
@@ -3244,7 +3244,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.4</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
@@ -3258,7 +3258,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-4.2</v>
+        <v>-2.09</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
@@ -3272,7 +3272,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.63</v>
+        <v>11.64</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
@@ -3286,7 +3286,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>131.93</v>
+        <v>-154.35</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -3300,7 +3300,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7.36</v>
+        <v>-123.25</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>15.38</v>
+        <v>10.3</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -3328,7 +3328,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-6.43</v>
+        <v>13.45</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>135.23</v>
+        <v>-141.66</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
@@ -3356,7 +3356,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.7</v>
+        <v>10.93</v>
       </c>
       <c r="C213" t="s">
         <v>2</v>
@@ -3370,7 +3370,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>149.68</v>
+        <v>12.98</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>139.56</v>
+        <v>-3.73</v>
       </c>
       <c r="C215" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>142.72</v>
+        <v>-139.18</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
@@ -3412,7 +3412,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>148.04</v>
+        <v>16.18</v>
       </c>
       <c r="C217" t="s">
         <v>2</v>
@@ -3426,7 +3426,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>135.83</v>
+        <v>2.53</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
@@ -3440,7 +3440,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>156.24</v>
+        <v>6.58</v>
       </c>
       <c r="C219" t="s">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>136.11</v>
+        <v>-131.68</v>
       </c>
       <c r="C220" t="s">
         <v>2</v>
@@ -3468,7 +3468,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-11.16</v>
+        <v>-142.68</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>10.45</v>
+        <v>6.9</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>152.1</v>
+        <v>10.58</v>
       </c>
       <c r="C223" t="s">
         <v>2</v>
@@ -3510,7 +3510,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>127.65</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C224" t="s">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>131.54</v>
+        <v>-131.51</v>
       </c>
       <c r="C225" t="s">
         <v>2</v>
@@ -3538,7 +3538,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-26.83</v>
+        <v>7.1</v>
       </c>
       <c r="C226" t="s">
         <v>2</v>
@@ -3552,7 +3552,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>147.73</v>
+        <v>-140.83</v>
       </c>
       <c r="C227" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>146.55</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
@@ -3580,7 +3580,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>132.72</v>
+        <v>6.6</v>
       </c>
       <c r="C229" t="s">
         <v>2</v>
@@ -3594,7 +3594,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>138.16</v>
+        <v>2.52</v>
       </c>
       <c r="C230" t="s">
         <v>2</v>
@@ -3608,7 +3608,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>145.91</v>
+        <v>2.46</v>
       </c>
       <c r="C231" t="s">
         <v>2</v>
@@ -3622,7 +3622,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.68</v>
+        <v>-139.51</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
@@ -3636,7 +3636,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.96</v>
+        <v>-5.49</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>151.85</v>
+        <v>16.49</v>
       </c>
       <c r="C234" t="s">
         <v>2</v>
@@ -3664,7 +3664,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>136.47</v>
+        <v>-152.46</v>
       </c>
       <c r="C235" t="s">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>118.38</v>
+        <v>14.78</v>
       </c>
       <c r="C236" t="s">
         <v>2</v>
@@ -3692,7 +3692,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>7.42</v>
+        <v>10.18</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -3706,7 +3706,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-14.01</v>
+        <v>-160.95</v>
       </c>
       <c r="C238" t="s">
         <v>2</v>
@@ -3720,7 +3720,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-10.46</v>
+        <v>-137.83</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-3.82</v>
+        <v>-9.42</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
@@ -3748,7 +3748,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-5.19</v>
+        <v>-142.45</v>
       </c>
       <c r="C241" t="s">
         <v>2</v>
@@ -3762,7 +3762,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.98</v>
+        <v>-144.09</v>
       </c>
       <c r="C242" t="s">
         <v>2</v>
@@ -3776,7 +3776,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7.98</v>
+        <v>-146.1</v>
       </c>
       <c r="C243" t="s">
         <v>2</v>
@@ -3790,7 +3790,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-5.21</v>
+        <v>16.34</v>
       </c>
       <c r="C244" t="s">
         <v>2</v>
@@ -3804,7 +3804,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>148.68</v>
+        <v>8.18</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -3818,7 +3818,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>128.15</v>
+        <v>4.41</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-5.56</v>
+        <v>-143.48</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -3846,7 +3846,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-9.35</v>
+        <v>-134.99</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -3860,7 +3860,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-17.05</v>
+        <v>4.51</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -3874,7 +3874,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>142.38</v>
+        <v>6.89</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-5.39</v>
+        <v>-2.68</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>3.81</v>
+        <v>-143.36</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -3916,7 +3916,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-2.25</v>
+        <v>5.41</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -3930,7 +3930,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-17.11</v>
+        <v>-138.24</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -3944,7 +3944,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>131.55</v>
+        <v>2.23</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -3958,7 +3958,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-2.32</v>
+        <v>17.74</v>
       </c>
       <c r="C256" t="s">
         <v>2</v>
@@ -3972,7 +3972,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-2.27</v>
+        <v>-129.14</v>
       </c>
       <c r="C257" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>99.12</v>
+        <v>-150.47</v>
       </c>
       <c r="C258" t="s">
         <v>2</v>
@@ -4000,7 +4000,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>151.67</v>
+        <v>-4.19</v>
       </c>
       <c r="C259" t="s">
         <v>2</v>
@@ -4014,7 +4014,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>127.61</v>
+        <v>18.8</v>
       </c>
       <c r="C260" t="s">
         <v>2</v>
@@ -4028,7 +4028,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>143.17</v>
+        <v>6.09</v>
       </c>
       <c r="C261" t="s">
         <v>2</v>
@@ -4042,7 +4042,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.45</v>
+        <v>5.36</v>
       </c>
       <c r="C262" t="s">
         <v>2</v>
@@ -4056,7 +4056,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>132.32</v>
+        <v>-142.09</v>
       </c>
       <c r="C263" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-3.26</v>
+        <v>7.82</v>
       </c>
       <c r="C264" t="s">
         <v>2</v>
@@ -4084,7 +4084,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>147.21</v>
+        <v>-146.11</v>
       </c>
       <c r="C265" t="s">
         <v>2</v>
@@ -4098,7 +4098,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>130.24</v>
+        <v>-1.71</v>
       </c>
       <c r="C266" t="s">
         <v>2</v>
@@ -4112,7 +4112,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-11.01</v>
+        <v>-126.1</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
@@ -4126,7 +4126,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>152.71</v>
+        <v>-152.24</v>
       </c>
       <c r="C268" t="s">
         <v>2</v>
@@ -4140,7 +4140,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.59</v>
+        <v>-134.41</v>
       </c>
       <c r="C269" t="s">
         <v>2</v>
@@ -4154,7 +4154,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>150.34</v>
+        <v>8.59</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
@@ -4168,7 +4168,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3.32</v>
+        <v>5.02</v>
       </c>
       <c r="C271" t="s">
         <v>2</v>
@@ -4182,7 +4182,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>142.85</v>
+        <v>-126.9</v>
       </c>
       <c r="C272" t="s">
         <v>2</v>
@@ -4196,7 +4196,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.49</v>
+        <v>-156.8</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
@@ -4210,7 +4210,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>147.32</v>
+        <v>-0.04</v>
       </c>
       <c r="C274" t="s">
         <v>2</v>
@@ -4224,7 +4224,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-4.48</v>
+        <v>-129.93</v>
       </c>
       <c r="C275" t="s">
         <v>2</v>
@@ -4238,7 +4238,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>138</v>
+        <v>-7.92</v>
       </c>
       <c r="C276" t="s">
         <v>2</v>
@@ -4252,7 +4252,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-4.93</v>
+        <v>-136.79</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -4266,7 +4266,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>7.01</v>
+        <v>-2.23</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -4280,7 +4280,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>134.69</v>
+        <v>-143.08</v>
       </c>
       <c r="C279" t="s">
         <v>2</v>
@@ -4294,7 +4294,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-9.16</v>
+        <v>3.27</v>
       </c>
       <c r="C280" t="s">
         <v>2</v>
@@ -4308,7 +4308,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>139.37</v>
+        <v>-137.26</v>
       </c>
       <c r="C281" t="s">
         <v>2</v>
@@ -4322,7 +4322,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>138.45</v>
+        <v>-148.94</v>
       </c>
       <c r="C282" t="s">
         <v>2</v>
@@ -4336,7 +4336,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>137.77</v>
+        <v>-145.04</v>
       </c>
       <c r="C283" t="s">
         <v>2</v>
@@ -4350,7 +4350,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-10.38</v>
+        <v>6.98</v>
       </c>
       <c r="C284" t="s">
         <v>2</v>
@@ -4364,7 +4364,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>154.85</v>
+        <v>-7.91</v>
       </c>
       <c r="C285" t="s">
         <v>2</v>
@@ -4378,7 +4378,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>144.6</v>
+        <v>17.75</v>
       </c>
       <c r="C286" t="s">
         <v>2</v>
@@ -4392,7 +4392,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>138.84</v>
+        <v>-122.28</v>
       </c>
       <c r="C287" t="s">
         <v>2</v>
@@ -4406,7 +4406,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>152.25</v>
+        <v>-155.02</v>
       </c>
       <c r="C288" t="s">
         <v>2</v>
@@ -4420,7 +4420,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>159.29</v>
+        <v>8.08</v>
       </c>
       <c r="C289" t="s">
         <v>2</v>
@@ -4434,7 +4434,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-4.69</v>
+        <v>-137.88</v>
       </c>
       <c r="C290" t="s">
         <v>2</v>
@@ -4448,7 +4448,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-17.77</v>
+        <v>-136.79</v>
       </c>
       <c r="C291" t="s">
         <v>2</v>
@@ -4462,7 +4462,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-10.01</v>
+        <v>-4.11</v>
       </c>
       <c r="C292" t="s">
         <v>2</v>
@@ -4476,7 +4476,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>147.25</v>
+        <v>-5.27</v>
       </c>
       <c r="C293" t="s">
         <v>2</v>
@@ -4490,7 +4490,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-7.91</v>
+        <v>13.99</v>
       </c>
       <c r="C294" t="s">
         <v>2</v>
@@ -4504,7 +4504,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-17.21</v>
+        <v>-132.77</v>
       </c>
       <c r="C295" t="s">
         <v>2</v>
@@ -4518,7 +4518,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>6.87</v>
+        <v>-143.92</v>
       </c>
       <c r="C296" t="s">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>139.9</v>
+        <v>2.83</v>
       </c>
       <c r="C297" t="s">
         <v>2</v>
@@ -4546,7 +4546,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>146.49</v>
+        <v>4.92</v>
       </c>
       <c r="C298" t="s">
         <v>2</v>
@@ -4560,7 +4560,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>125.73</v>
+        <v>17.05</v>
       </c>
       <c r="C299" t="s">
         <v>2</v>
@@ -4574,7 +4574,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-9.23</v>
+        <v>0.54</v>
       </c>
       <c r="C300" t="s">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>130.24</v>
+        <v>-132.74</v>
       </c>
       <c r="C301" t="s">
         <v>2</v>
@@ -4602,7 +4602,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>140.75</v>
+        <v>-131.1</v>
       </c>
       <c r="C302" t="s">
         <v>2</v>
@@ -4616,7 +4616,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-5.76</v>
+        <v>-136.81</v>
       </c>
       <c r="C303" t="s">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-14.37</v>
+        <v>-6.97</v>
       </c>
       <c r="C304" t="s">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-8.31</v>
+        <v>3.43</v>
       </c>
       <c r="C305" t="s">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-5.11</v>
+        <v>-144.73</v>
       </c>
       <c r="C306" t="s">
         <v>2</v>
@@ -4672,7 +4672,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>12.49</v>
+        <v>16.89</v>
       </c>
       <c r="C307" t="s">
         <v>2</v>
@@ -4686,7 +4686,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.78</v>
+        <v>4.68</v>
       </c>
       <c r="C308" t="s">
         <v>2</v>
@@ -4700,7 +4700,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-15.51</v>
+        <v>6.22</v>
       </c>
       <c r="C309" t="s">
         <v>2</v>
@@ -4714,7 +4714,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>4.79</v>
+        <v>-144.46</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.97</v>
+        <v>-130</v>
       </c>
       <c r="C311" t="s">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>7.15</v>
+        <v>13.04</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -4756,7 +4756,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>148.56</v>
+        <v>-132.63</v>
       </c>
       <c r="C313" t="s">
         <v>2</v>
@@ -4770,7 +4770,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-10.56</v>
+        <v>-147.04</v>
       </c>
       <c r="C314" t="s">
         <v>2</v>
@@ -4784,7 +4784,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4.92</v>
+        <v>11.48</v>
       </c>
       <c r="C315" t="s">
         <v>2</v>
@@ -4798,7 +4798,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>143.54</v>
+        <v>-147</v>
       </c>
       <c r="C316" t="s">
         <v>2</v>
@@ -4812,7 +4812,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.16</v>
+        <v>6.26</v>
       </c>
       <c r="C317" t="s">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>143.57</v>
+        <v>-138.35</v>
       </c>
       <c r="C318" t="s">
         <v>2</v>
@@ -4840,7 +4840,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.15</v>
+        <v>10.86</v>
       </c>
       <c r="C319" t="s">
         <v>2</v>
@@ -4854,7 +4854,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>154.66</v>
+        <v>-144.38</v>
       </c>
       <c r="C320" t="s">
         <v>2</v>
@@ -4868,7 +4868,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-8.449999999999999</v>
+        <v>-144.2</v>
       </c>
       <c r="C321" t="s">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-9.710000000000001</v>
+        <v>-143.5</v>
       </c>
       <c r="C322" t="s">
         <v>2</v>
@@ -4896,7 +4896,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>156.35</v>
+        <v>-0.32</v>
       </c>
       <c r="C323" t="s">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>139.34</v>
+        <v>-132.96</v>
       </c>
       <c r="C324" t="s">
         <v>2</v>
@@ -4924,7 +4924,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>143.1</v>
+        <v>12.8</v>
       </c>
       <c r="C325" t="s">
         <v>2</v>
@@ -4938,7 +4938,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-2.07</v>
+        <v>-0.24</v>
       </c>
       <c r="C326" t="s">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-10.01</v>
+        <v>-140</v>
       </c>
       <c r="C327" t="s">
         <v>2</v>
@@ -4966,7 +4966,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-15.94</v>
+        <v>-2.17</v>
       </c>
       <c r="C328" t="s">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>146.7</v>
+        <v>18.57</v>
       </c>
       <c r="C329" t="s">
         <v>2</v>
@@ -4994,7 +4994,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3.65</v>
+        <v>-5.48</v>
       </c>
       <c r="C330" t="s">
         <v>2</v>
@@ -5008,7 +5008,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>147.51</v>
+        <v>12.94</v>
       </c>
       <c r="C331" t="s">
         <v>2</v>
@@ -5022,7 +5022,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>4.71</v>
+        <v>20.27</v>
       </c>
       <c r="C332" t="s">
         <v>2</v>
@@ -5036,7 +5036,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9.539999999999999</v>
+        <v>-124.16</v>
       </c>
       <c r="C333" t="s">
         <v>2</v>
@@ -5050,7 +5050,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-6.26</v>
+        <v>16.36</v>
       </c>
       <c r="C334" t="s">
         <v>2</v>
@@ -5064,7 +5064,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>82.27</v>
+        <v>-16.52</v>
       </c>
       <c r="C335" t="s">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>150.21</v>
+        <v>-133.94</v>
       </c>
       <c r="C336" t="s">
         <v>2</v>
@@ -5092,7 +5092,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>136.2</v>
+        <v>-143.37</v>
       </c>
       <c r="C337" t="s">
         <v>2</v>
@@ -5106,7 +5106,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-16.23</v>
+        <v>-139.96</v>
       </c>
       <c r="C338" t="s">
         <v>2</v>
@@ -5120,7 +5120,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-13.06</v>
+        <v>-13.24</v>
       </c>
       <c r="C339" t="s">
         <v>2</v>
@@ -5134,7 +5134,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>123.23</v>
+        <v>-143.12</v>
       </c>
       <c r="C340" t="s">
         <v>2</v>
@@ -5148,7 +5148,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>148.88</v>
+        <v>18.87</v>
       </c>
       <c r="C341" t="s">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-15.63</v>
+        <v>-139.55</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -5176,7 +5176,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>130.1</v>
+        <v>-141.43</v>
       </c>
       <c r="C343" t="s">
         <v>2</v>
@@ -5190,7 +5190,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-10.96</v>
+        <v>-140.73</v>
       </c>
       <c r="C344" t="s">
         <v>2</v>
@@ -5204,7 +5204,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>117.2</v>
+        <v>-151.01</v>
       </c>
       <c r="C345" t="s">
         <v>2</v>
@@ -5218,7 +5218,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>135.72</v>
+        <v>17.08</v>
       </c>
       <c r="C346" t="s">
         <v>2</v>
@@ -5232,7 +5232,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>146.79</v>
+        <v>-129.04</v>
       </c>
       <c r="C347" t="s">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>165.12</v>
+        <v>8.25</v>
       </c>
       <c r="C348" t="s">
         <v>2</v>
@@ -5260,7 +5260,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-16.08</v>
+        <v>5.03</v>
       </c>
       <c r="C349" t="s">
         <v>2</v>
@@ -5274,7 +5274,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>145.39</v>
+        <v>14.08</v>
       </c>
       <c r="C350" t="s">
         <v>2</v>
@@ -5288,7 +5288,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>155.71</v>
+        <v>15.82</v>
       </c>
       <c r="C351" t="s">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.78</v>
+        <v>9.73</v>
       </c>
       <c r="C352" t="s">
         <v>2</v>
@@ -5316,7 +5316,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>151.78</v>
+        <v>-136.35</v>
       </c>
       <c r="C353" t="s">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>135.94</v>
+        <v>13.98</v>
       </c>
       <c r="C354" t="s">
         <v>2</v>
@@ -5344,7 +5344,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>149.66</v>
+        <v>24.29</v>
       </c>
       <c r="C355" t="s">
         <v>2</v>
@@ -5358,7 +5358,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>141.59</v>
+        <v>-11.71</v>
       </c>
       <c r="C356" t="s">
         <v>2</v>
@@ -5372,7 +5372,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>138.06</v>
+        <v>15.34</v>
       </c>
       <c r="C357" t="s">
         <v>2</v>
@@ -5386,7 +5386,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>132.25</v>
+        <v>-139.29</v>
       </c>
       <c r="C358" t="s">
         <v>2</v>
@@ -5400,7 +5400,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0.4</v>
+        <v>-142.47</v>
       </c>
       <c r="C359" t="s">
         <v>2</v>
@@ -5414,7 +5414,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>133.44</v>
+        <v>-146.72</v>
       </c>
       <c r="C360" t="s">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>135.47</v>
+        <v>-140.23</v>
       </c>
       <c r="C361" t="s">
         <v>2</v>
@@ -5442,7 +5442,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>149.66</v>
+        <v>-143.34</v>
       </c>
       <c r="C362" t="s">
         <v>2</v>
@@ -5456,7 +5456,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>155.86</v>
+        <v>11.6</v>
       </c>
       <c r="C363" t="s">
         <v>2</v>
@@ -5470,7 +5470,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>154.82</v>
+        <v>9.41</v>
       </c>
       <c r="C364" t="s">
         <v>2</v>
@@ -5484,7 +5484,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-8.199999999999999</v>
+        <v>-138.31</v>
       </c>
       <c r="C365" t="s">
         <v>2</v>
@@ -5498,7 +5498,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-12</v>
+        <v>17.44</v>
       </c>
       <c r="C366" t="s">
         <v>2</v>
@@ -5512,7 +5512,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>137.89</v>
+        <v>4.64</v>
       </c>
       <c r="C367" t="s">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-9.880000000000001</v>
+        <v>5.74</v>
       </c>
       <c r="C368" t="s">
         <v>2</v>
@@ -5540,7 +5540,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>148.35</v>
+        <v>-128.45</v>
       </c>
       <c r="C369" t="s">
         <v>2</v>
@@ -5554,7 +5554,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>136.49</v>
+        <v>-137.9</v>
       </c>
       <c r="C370" t="s">
         <v>2</v>
@@ -5568,7 +5568,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>145.15</v>
+        <v>7.29</v>
       </c>
       <c r="C371" t="s">
         <v>2</v>
@@ -5582,7 +5582,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-8.66</v>
+        <v>8.73</v>
       </c>
       <c r="C372" t="s">
         <v>2</v>
@@ -5596,7 +5596,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>148.56</v>
+        <v>-139.96</v>
       </c>
       <c r="C373" t="s">
         <v>2</v>
@@ -5610,7 +5610,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>125.99</v>
+        <v>-138.98</v>
       </c>
       <c r="C374" t="s">
         <v>2</v>
@@ -5624,7 +5624,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-14.62</v>
+        <v>1.79</v>
       </c>
       <c r="C375" t="s">
         <v>2</v>
@@ -5638,7 +5638,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-8.18</v>
+        <v>-137.88</v>
       </c>
       <c r="C376" t="s">
         <v>2</v>
@@ -5652,7 +5652,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-9.93</v>
+        <v>1.7</v>
       </c>
       <c r="C377" t="s">
         <v>2</v>
@@ -5666,7 +5666,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-7.44</v>
+        <v>-12.81</v>
       </c>
       <c r="C378" t="s">
         <v>2</v>
@@ -5680,7 +5680,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>126.39</v>
+        <v>-2.66</v>
       </c>
       <c r="C379" t="s">
         <v>2</v>
@@ -5694,7 +5694,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>143.5</v>
+        <v>-148.11</v>
       </c>
       <c r="C380" t="s">
         <v>2</v>
@@ -5708,7 +5708,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>137.18</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C381" t="s">
         <v>2</v>
@@ -5722,7 +5722,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-12.35</v>
+        <v>-144.85</v>
       </c>
       <c r="C382" t="s">
         <v>2</v>
@@ -5736,7 +5736,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-9.67</v>
+        <v>6.67</v>
       </c>
       <c r="C383" t="s">
         <v>2</v>
@@ -5750,7 +5750,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>125.73</v>
+        <v>-150.59</v>
       </c>
       <c r="C384" t="s">
         <v>2</v>
@@ -5764,7 +5764,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>150.81</v>
+        <v>-6.15</v>
       </c>
       <c r="C385" t="s">
         <v>2</v>
@@ -5778,7 +5778,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-11.43</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="C386" t="s">
         <v>2</v>
@@ -5792,7 +5792,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7.35</v>
+        <v>-138.87</v>
       </c>
       <c r="C387" t="s">
         <v>2</v>
@@ -5806,7 +5806,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>128.96</v>
+        <v>4.16</v>
       </c>
       <c r="C388" t="s">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>5.12</v>
+        <v>-135.19</v>
       </c>
       <c r="C389" t="s">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-20.09</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="C390" t="s">
         <v>2</v>
@@ -5848,7 +5848,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-3.16</v>
+        <v>0.22</v>
       </c>
       <c r="C391" t="s">
         <v>2</v>
@@ -5862,7 +5862,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>134.37</v>
+        <v>11.69</v>
       </c>
       <c r="C392" t="s">
         <v>2</v>
@@ -5876,7 +5876,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>155.15</v>
+        <v>-3.34</v>
       </c>
       <c r="C393" t="s">
         <v>2</v>
@@ -5890,7 +5890,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>141.89</v>
+        <v>-126.2</v>
       </c>
       <c r="C394" t="s">
         <v>2</v>
@@ -5904,7 +5904,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>5.19</v>
+        <v>10.24</v>
       </c>
       <c r="C395" t="s">
         <v>2</v>
@@ -5918,7 +5918,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>142.45</v>
+        <v>-140.26</v>
       </c>
       <c r="C396" t="s">
         <v>2</v>
@@ -5932,7 +5932,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>135.49</v>
+        <v>-136.75</v>
       </c>
       <c r="C397" t="s">
         <v>2</v>
@@ -5946,7 +5946,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-13.69</v>
+        <v>-142.5</v>
       </c>
       <c r="C398" t="s">
         <v>2</v>
@@ -5960,7 +5960,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-1.73</v>
+        <v>0.85</v>
       </c>
       <c r="C399" t="s">
         <v>2</v>
@@ -5974,7 +5974,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>133.71</v>
+        <v>4.41</v>
       </c>
       <c r="C400" t="s">
         <v>2</v>
@@ -5988,7 +5988,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.13</v>
+        <v>13.92</v>
       </c>
       <c r="C401" t="s">
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>145.25</v>
+        <v>13.21</v>
       </c>
       <c r="C402" t="s">
         <v>4</v>
@@ -6016,7 +6016,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>135.03</v>
+        <v>5.68</v>
       </c>
       <c r="C403" t="s">
         <v>4</v>
@@ -6030,7 +6030,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>134.58</v>
+        <v>2.69</v>
       </c>
       <c r="C404" t="s">
         <v>4</v>
@@ -6044,7 +6044,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>152.16</v>
+        <v>-12.39</v>
       </c>
       <c r="C405" t="s">
         <v>4</v>
@@ -6058,7 +6058,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>141.91</v>
+        <v>12.54</v>
       </c>
       <c r="C406" t="s">
         <v>4</v>
@@ -6072,7 +6072,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>143.19</v>
+        <v>14.58</v>
       </c>
       <c r="C407" t="s">
         <v>4</v>
@@ -6086,7 +6086,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>143.71</v>
+        <v>-10.95</v>
       </c>
       <c r="C408" t="s">
         <v>4</v>
@@ -6100,7 +6100,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>146.08</v>
+        <v>-4.74</v>
       </c>
       <c r="C409" t="s">
         <v>4</v>
@@ -6114,7 +6114,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>-12.15</v>
+        <v>5.9</v>
       </c>
       <c r="C410" t="s">
         <v>4</v>
@@ -6128,7 +6128,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>128.94</v>
+        <v>3.26</v>
       </c>
       <c r="C411" t="s">
         <v>4</v>
@@ -6142,7 +6142,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>153.73</v>
+        <v>-12.2</v>
       </c>
       <c r="C412" t="s">
         <v>4</v>
@@ -6156,7 +6156,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>143.66</v>
+        <v>11.66</v>
       </c>
       <c r="C413" t="s">
         <v>4</v>
@@ -6170,7 +6170,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>135.41</v>
+        <v>10.25</v>
       </c>
       <c r="C414" t="s">
         <v>4</v>
@@ -6184,7 +6184,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>140.58</v>
+        <v>-7.1</v>
       </c>
       <c r="C415" t="s">
         <v>4</v>
@@ -6198,7 +6198,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>131.01</v>
+        <v>4.06</v>
       </c>
       <c r="C416" t="s">
         <v>4</v>
@@ -6212,7 +6212,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>146.92</v>
+        <v>-5.87</v>
       </c>
       <c r="C417" t="s">
         <v>4</v>
@@ -6226,7 +6226,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>142.89</v>
+        <v>0.57</v>
       </c>
       <c r="C418" t="s">
         <v>4</v>
@@ -6240,7 +6240,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>131.15</v>
+        <v>4</v>
       </c>
       <c r="C419" t="s">
         <v>4</v>
@@ -6254,7 +6254,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>131.94</v>
+        <v>6.92</v>
       </c>
       <c r="C420" t="s">
         <v>4</v>
@@ -6268,7 +6268,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>141.2</v>
+        <v>-2.92</v>
       </c>
       <c r="C421" t="s">
         <v>4</v>
@@ -6282,7 +6282,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>149.59</v>
+        <v>4.39</v>
       </c>
       <c r="C422" t="s">
         <v>4</v>
@@ -6296,7 +6296,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>135.39</v>
+        <v>-5.34</v>
       </c>
       <c r="C423" t="s">
         <v>4</v>
@@ -6310,7 +6310,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>137.59</v>
+        <v>-7.72</v>
       </c>
       <c r="C424" t="s">
         <v>4</v>
@@ -6324,7 +6324,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>151.01</v>
+        <v>-139.01</v>
       </c>
       <c r="C425" t="s">
         <v>4</v>
@@ -6338,7 +6338,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>123.38</v>
+        <v>-135.79</v>
       </c>
       <c r="C426" t="s">
         <v>4</v>
@@ -6352,7 +6352,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-4.89</v>
+        <v>12.1</v>
       </c>
       <c r="C427" t="s">
         <v>4</v>
@@ -6366,7 +6366,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>126.01</v>
+        <v>1.54</v>
       </c>
       <c r="C428" t="s">
         <v>4</v>
@@ -6380,7 +6380,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>133.49</v>
+        <v>-6.48</v>
       </c>
       <c r="C429" t="s">
         <v>4</v>
@@ -6394,7 +6394,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>131.09</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C430" t="s">
         <v>4</v>
@@ -6408,7 +6408,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>133.46</v>
+        <v>5.85</v>
       </c>
       <c r="C431" t="s">
         <v>4</v>
@@ -6422,7 +6422,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>136.89</v>
+        <v>-5.01</v>
       </c>
       <c r="C432" t="s">
         <v>4</v>
@@ -6436,7 +6436,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>2.23</v>
+        <v>-4.1</v>
       </c>
       <c r="C433" t="s">
         <v>4</v>
@@ -6450,7 +6450,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>155.4</v>
+        <v>1.72</v>
       </c>
       <c r="C434" t="s">
         <v>4</v>
@@ -6464,7 +6464,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>128.98</v>
+        <v>-4.08</v>
       </c>
       <c r="C435" t="s">
         <v>4</v>
@@ -6478,7 +6478,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>142.46</v>
+        <v>-1.32</v>
       </c>
       <c r="C436" t="s">
         <v>4</v>
@@ -6492,7 +6492,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>148.12</v>
+        <v>3.81</v>
       </c>
       <c r="C437" t="s">
         <v>4</v>
@@ -6506,7 +6506,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>136.1</v>
+        <v>-7.01</v>
       </c>
       <c r="C438" t="s">
         <v>4</v>
@@ -6520,7 +6520,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>126.52</v>
+        <v>-10.38</v>
       </c>
       <c r="C439" t="s">
         <v>4</v>
@@ -6534,7 +6534,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>137.79</v>
+        <v>-3.1</v>
       </c>
       <c r="C440" t="s">
         <v>4</v>
@@ -6548,7 +6548,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>137.84</v>
+        <v>-4.07</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
@@ -6562,7 +6562,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>137.61</v>
+        <v>6.1</v>
       </c>
       <c r="C442" t="s">
         <v>4</v>
@@ -6576,7 +6576,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>140.51</v>
+        <v>1.09</v>
       </c>
       <c r="C443" t="s">
         <v>4</v>
@@ -6590,7 +6590,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>1.92</v>
+        <v>18.1</v>
       </c>
       <c r="C444" t="s">
         <v>4</v>
@@ -6604,7 +6604,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>123.59</v>
+        <v>3.05</v>
       </c>
       <c r="C445" t="s">
         <v>4</v>
@@ -6618,7 +6618,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>4</v>
+        <v>-144.38</v>
       </c>
       <c r="C446" t="s">
         <v>4</v>
@@ -6632,7 +6632,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>146.98</v>
+        <v>2.13</v>
       </c>
       <c r="C447" t="s">
         <v>4</v>
@@ -6646,7 +6646,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>145.95</v>
+        <v>4.79</v>
       </c>
       <c r="C448" t="s">
         <v>4</v>
@@ -6660,7 +6660,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>142.26</v>
+        <v>-3.78</v>
       </c>
       <c r="C449" t="s">
         <v>4</v>
@@ -6674,7 +6674,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>128.75</v>
+        <v>-0.72</v>
       </c>
       <c r="C450" t="s">
         <v>4</v>
@@ -6688,7 +6688,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>140.32</v>
+        <v>-3.79</v>
       </c>
       <c r="C451" t="s">
         <v>4</v>
@@ -6702,7 +6702,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>143.04</v>
+        <v>-137.69</v>
       </c>
       <c r="C452" t="s">
         <v>4</v>
@@ -6716,7 +6716,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>140.83</v>
+        <v>0.28</v>
       </c>
       <c r="C453" t="s">
         <v>4</v>
@@ -6730,7 +6730,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>139.72</v>
+        <v>7.58</v>
       </c>
       <c r="C454" t="s">
         <v>4</v>
@@ -6744,7 +6744,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>128.77</v>
+        <v>6</v>
       </c>
       <c r="C455" t="s">
         <v>4</v>
@@ -6758,7 +6758,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>143.24</v>
+        <v>-10.14</v>
       </c>
       <c r="C456" t="s">
         <v>4</v>
@@ -6772,7 +6772,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>137.05</v>
+        <v>-0.38</v>
       </c>
       <c r="C457" t="s">
         <v>4</v>
@@ -6786,7 +6786,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>132.95</v>
+        <v>6.37</v>
       </c>
       <c r="C458" t="s">
         <v>4</v>
@@ -6800,7 +6800,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>142.63</v>
+        <v>-1.67</v>
       </c>
       <c r="C459" t="s">
         <v>4</v>
@@ -6814,7 +6814,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>130.33</v>
+        <v>-2.4</v>
       </c>
       <c r="C460" t="s">
         <v>4</v>
@@ -6828,7 +6828,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>144.08</v>
+        <v>4.14</v>
       </c>
       <c r="C461" t="s">
         <v>4</v>
@@ -6842,7 +6842,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>133.56</v>
+        <v>9.16</v>
       </c>
       <c r="C462" t="s">
         <v>4</v>
@@ -6856,7 +6856,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>137.22</v>
+        <v>-3.09</v>
       </c>
       <c r="C463" t="s">
         <v>4</v>
@@ -6870,7 +6870,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>138.81</v>
+        <v>-143.9</v>
       </c>
       <c r="C464" t="s">
         <v>4</v>
@@ -6884,7 +6884,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>155.89</v>
+        <v>-0.42</v>
       </c>
       <c r="C465" t="s">
         <v>4</v>
@@ -6898,7 +6898,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>145.93</v>
+        <v>-7</v>
       </c>
       <c r="C466" t="s">
         <v>4</v>
@@ -6912,7 +6912,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>133.25</v>
+        <v>12.5</v>
       </c>
       <c r="C467" t="s">
         <v>4</v>
@@ -6926,7 +6926,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>125.12</v>
+        <v>2.03</v>
       </c>
       <c r="C468" t="s">
         <v>4</v>
@@ -6940,7 +6940,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>137.83</v>
+        <v>7.44</v>
       </c>
       <c r="C469" t="s">
         <v>4</v>
@@ -6954,7 +6954,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>133.98</v>
+        <v>5.04</v>
       </c>
       <c r="C470" t="s">
         <v>4</v>
@@ -6968,7 +6968,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>136.5</v>
+        <v>-138.97</v>
       </c>
       <c r="C471" t="s">
         <v>4</v>
@@ -6982,7 +6982,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>141.64</v>
+        <v>5.37</v>
       </c>
       <c r="C472" t="s">
         <v>4</v>
@@ -6996,7 +6996,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>132.13</v>
+        <v>10.41</v>
       </c>
       <c r="C473" t="s">
         <v>4</v>
@@ -7010,7 +7010,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>141.46</v>
+        <v>3.44</v>
       </c>
       <c r="C474" t="s">
         <v>4</v>
@@ -7024,7 +7024,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>141.55</v>
+        <v>-5.74</v>
       </c>
       <c r="C475" t="s">
         <v>4</v>
@@ -7038,7 +7038,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>142.75</v>
+        <v>16.67</v>
       </c>
       <c r="C476" t="s">
         <v>4</v>
@@ -7052,7 +7052,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>-7.53</v>
+        <v>-9.31</v>
       </c>
       <c r="C477" t="s">
         <v>4</v>
@@ -7066,7 +7066,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.01</v>
+        <v>4.15</v>
       </c>
       <c r="C478" t="s">
         <v>4</v>
@@ -7080,7 +7080,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>129.16</v>
+        <v>18.18</v>
       </c>
       <c r="C479" t="s">
         <v>4</v>
@@ -7094,7 +7094,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>130.18</v>
+        <v>-141.6</v>
       </c>
       <c r="C480" t="s">
         <v>4</v>
@@ -7108,7 +7108,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>126.56</v>
+        <v>-145.69</v>
       </c>
       <c r="C481" t="s">
         <v>4</v>
@@ -7122,7 +7122,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>138.09</v>
+        <v>0.37</v>
       </c>
       <c r="C482" t="s">
         <v>4</v>
@@ -7136,7 +7136,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>140.73</v>
+        <v>-150.17</v>
       </c>
       <c r="C483" t="s">
         <v>4</v>
@@ -7150,7 +7150,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>143.92</v>
+        <v>-11.31</v>
       </c>
       <c r="C484" t="s">
         <v>4</v>
@@ -7164,7 +7164,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>137.15</v>
+        <v>-3.27</v>
       </c>
       <c r="C485" t="s">
         <v>4</v>
@@ -7178,7 +7178,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>135.62</v>
+        <v>2.45</v>
       </c>
       <c r="C486" t="s">
         <v>4</v>
@@ -7192,7 +7192,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>-11.17</v>
+        <v>-149.04</v>
       </c>
       <c r="C487" t="s">
         <v>4</v>
@@ -7206,7 +7206,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>144.03</v>
+        <v>0.23</v>
       </c>
       <c r="C488" t="s">
         <v>4</v>
@@ -7220,7 +7220,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>154.38</v>
+        <v>2.51</v>
       </c>
       <c r="C489" t="s">
         <v>4</v>
@@ -7234,7 +7234,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>141.68</v>
+        <v>-3.5</v>
       </c>
       <c r="C490" t="s">
         <v>4</v>
@@ -7248,7 +7248,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>126.4</v>
+        <v>-14.59</v>
       </c>
       <c r="C491" t="s">
         <v>4</v>
@@ -7262,7 +7262,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>142.55</v>
+        <v>13.16</v>
       </c>
       <c r="C492" t="s">
         <v>4</v>
@@ -7276,7 +7276,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>136.52</v>
+        <v>-1.55</v>
       </c>
       <c r="C493" t="s">
         <v>4</v>
@@ -7290,7 +7290,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>159.05</v>
+        <v>-6.22</v>
       </c>
       <c r="C494" t="s">
         <v>4</v>
@@ -7304,7 +7304,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>138.69</v>
+        <v>5.24</v>
       </c>
       <c r="C495" t="s">
         <v>4</v>
@@ -7318,7 +7318,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>-8.42</v>
+        <v>-126.01</v>
       </c>
       <c r="C496" t="s">
         <v>4</v>
@@ -7332,7 +7332,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>131.39</v>
+        <v>-6.69</v>
       </c>
       <c r="C497" t="s">
         <v>4</v>
@@ -7346,7 +7346,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>138.69</v>
+        <v>-6.3</v>
       </c>
       <c r="C498" t="s">
         <v>4</v>
@@ -7360,7 +7360,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>137.57</v>
+        <v>4.83</v>
       </c>
       <c r="C499" t="s">
         <v>4</v>
@@ -7374,7 +7374,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>142.45</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="C500" t="s">
         <v>4</v>
@@ -7388,7 +7388,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>126.76</v>
+        <v>-13.27</v>
       </c>
       <c r="C501" t="s">
         <v>4</v>
@@ -7402,7 +7402,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>134.63</v>
+        <v>-0.47</v>
       </c>
       <c r="C502" t="s">
         <v>4</v>
@@ -7416,7 +7416,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>146.09</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C503" t="s">
         <v>4</v>
@@ -7430,7 +7430,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>-4.96</v>
+        <v>10.55</v>
       </c>
       <c r="C504" t="s">
         <v>4</v>
@@ -7444,7 +7444,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>154.14</v>
+        <v>-5.52</v>
       </c>
       <c r="C505" t="s">
         <v>4</v>
@@ -7458,7 +7458,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>139.55</v>
+        <v>12.71</v>
       </c>
       <c r="C506" t="s">
         <v>4</v>
@@ -7472,7 +7472,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>135.86</v>
+        <v>-3.22</v>
       </c>
       <c r="C507" t="s">
         <v>4</v>
@@ -7486,7 +7486,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>-8.859999999999999</v>
+        <v>12.53</v>
       </c>
       <c r="C508" t="s">
         <v>4</v>
@@ -7500,7 +7500,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>-13.73</v>
+        <v>10.47</v>
       </c>
       <c r="C509" t="s">
         <v>4</v>
@@ -7514,7 +7514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>134.41</v>
+        <v>3.38</v>
       </c>
       <c r="C510" t="s">
         <v>4</v>
@@ -7528,7 +7528,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>146.92</v>
+        <v>-3.38</v>
       </c>
       <c r="C511" t="s">
         <v>4</v>
@@ -7542,7 +7542,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>129.47</v>
+        <v>17.71</v>
       </c>
       <c r="C512" t="s">
         <v>4</v>
@@ -7556,7 +7556,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>-1.1</v>
+        <v>-2.58</v>
       </c>
       <c r="C513" t="s">
         <v>4</v>
@@ -7570,7 +7570,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>142.98</v>
+        <v>6.01</v>
       </c>
       <c r="C514" t="s">
         <v>4</v>
@@ -7584,7 +7584,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>130.92</v>
+        <v>13.06</v>
       </c>
       <c r="C515" t="s">
         <v>4</v>
@@ -7598,7 +7598,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>138.13</v>
+        <v>-11.69</v>
       </c>
       <c r="C516" t="s">
         <v>4</v>
@@ -7612,7 +7612,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>136.29</v>
+        <v>4.74</v>
       </c>
       <c r="C517" t="s">
         <v>4</v>
@@ -7626,7 +7626,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>146.41</v>
+        <v>5.71</v>
       </c>
       <c r="C518" t="s">
         <v>4</v>
@@ -7640,7 +7640,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>152.62</v>
+        <v>5.83</v>
       </c>
       <c r="C519" t="s">
         <v>4</v>
@@ -7654,7 +7654,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>145.02</v>
+        <v>-132.85</v>
       </c>
       <c r="C520" t="s">
         <v>4</v>
@@ -7668,7 +7668,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>-2</v>
+        <v>1.63</v>
       </c>
       <c r="C521" t="s">
         <v>4</v>
@@ -7682,7 +7682,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>140.02</v>
+        <v>-11.3</v>
       </c>
       <c r="C522" t="s">
         <v>4</v>
@@ -7696,7 +7696,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>130.57</v>
+        <v>-0.65</v>
       </c>
       <c r="C523" t="s">
         <v>4</v>
@@ -7710,7 +7710,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>141.52</v>
+        <v>10.91</v>
       </c>
       <c r="C524" t="s">
         <v>4</v>
@@ -7724,7 +7724,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>131.11</v>
+        <v>7.49</v>
       </c>
       <c r="C525" t="s">
         <v>4</v>
@@ -7738,7 +7738,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>119.6</v>
+        <v>-4.26</v>
       </c>
       <c r="C526" t="s">
         <v>4</v>
@@ -7752,7 +7752,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>131.56</v>
+        <v>-129.93</v>
       </c>
       <c r="C527" t="s">
         <v>4</v>
@@ -7766,7 +7766,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>142.8</v>
+        <v>-0.06</v>
       </c>
       <c r="C528" t="s">
         <v>4</v>
@@ -7780,7 +7780,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>137.48</v>
+        <v>-126.18</v>
       </c>
       <c r="C529" t="s">
         <v>4</v>
@@ -7794,7 +7794,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>130.35</v>
+        <v>2.74</v>
       </c>
       <c r="C530" t="s">
         <v>4</v>
@@ -7808,7 +7808,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>131.91</v>
+        <v>5.18</v>
       </c>
       <c r="C531" t="s">
         <v>4</v>
@@ -7822,7 +7822,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>156.49</v>
+        <v>5.88</v>
       </c>
       <c r="C532" t="s">
         <v>4</v>
@@ -7836,7 +7836,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>128.59</v>
+        <v>3.09</v>
       </c>
       <c r="C533" t="s">
         <v>4</v>
@@ -7850,7 +7850,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>140.76</v>
+        <v>-6.01</v>
       </c>
       <c r="C534" t="s">
         <v>4</v>
@@ -7864,7 +7864,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>151.88</v>
+        <v>20.16</v>
       </c>
       <c r="C535" t="s">
         <v>4</v>
@@ -7878,7 +7878,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>133.88</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C536" t="s">
         <v>4</v>
@@ -7892,7 +7892,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>142.11</v>
+        <v>7.33</v>
       </c>
       <c r="C537" t="s">
         <v>4</v>
@@ -7906,7 +7906,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>148.81</v>
+        <v>-3.04</v>
       </c>
       <c r="C538" t="s">
         <v>4</v>
@@ -7920,7 +7920,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>141.39</v>
+        <v>-3.77</v>
       </c>
       <c r="C539" t="s">
         <v>4</v>
@@ -7934,7 +7934,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>145.92</v>
+        <v>-143.37</v>
       </c>
       <c r="C540" t="s">
         <v>4</v>
@@ -7948,7 +7948,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>146.74</v>
+        <v>-2.44</v>
       </c>
       <c r="C541" t="s">
         <v>4</v>
@@ -7962,7 +7962,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>148.62</v>
+        <v>-2.58</v>
       </c>
       <c r="C542" t="s">
         <v>4</v>
@@ -7976,7 +7976,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>131.92</v>
+        <v>-136.56</v>
       </c>
       <c r="C543" t="s">
         <v>4</v>
@@ -7990,7 +7990,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>144.66</v>
+        <v>-142.94</v>
       </c>
       <c r="C544" t="s">
         <v>4</v>
@@ -8004,7 +8004,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>6.16</v>
+        <v>11.02</v>
       </c>
       <c r="C545" t="s">
         <v>4</v>
@@ -8018,7 +8018,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>139.05</v>
+        <v>-151.74</v>
       </c>
       <c r="C546" t="s">
         <v>4</v>
@@ -8032,7 +8032,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>136.36</v>
+        <v>-2.62</v>
       </c>
       <c r="C547" t="s">
         <v>4</v>
@@ -8046,7 +8046,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>126.16</v>
+        <v>10.34</v>
       </c>
       <c r="C548" t="s">
         <v>4</v>
@@ -8060,7 +8060,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>144.58</v>
+        <v>-1.82</v>
       </c>
       <c r="C549" t="s">
         <v>4</v>
@@ -8074,7 +8074,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>158.31</v>
+        <v>12.27</v>
       </c>
       <c r="C550" t="s">
         <v>4</v>
@@ -8088,7 +8088,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>137.7</v>
+        <v>20.25</v>
       </c>
       <c r="C551" t="s">
         <v>4</v>
@@ -8102,7 +8102,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>143</v>
+        <v>2.59</v>
       </c>
       <c r="C552" t="s">
         <v>4</v>
@@ -8116,7 +8116,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>128.49</v>
+        <v>-0.03</v>
       </c>
       <c r="C553" t="s">
         <v>4</v>
@@ -8130,7 +8130,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>134.55</v>
+        <v>-6.38</v>
       </c>
       <c r="C554" t="s">
         <v>4</v>
@@ -8144,7 +8144,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>130.66</v>
+        <v>1.2</v>
       </c>
       <c r="C555" t="s">
         <v>4</v>
@@ -8158,7 +8158,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>128.92</v>
+        <v>2.62</v>
       </c>
       <c r="C556" t="s">
         <v>4</v>
@@ -8172,7 +8172,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>137.36</v>
+        <v>15.14</v>
       </c>
       <c r="C557" t="s">
         <v>4</v>
@@ -8186,7 +8186,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>134.38</v>
+        <v>21.39</v>
       </c>
       <c r="C558" t="s">
         <v>4</v>
@@ -8200,7 +8200,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>141.37</v>
+        <v>-1.1</v>
       </c>
       <c r="C559" t="s">
         <v>4</v>
@@ -8214,7 +8214,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>141.08</v>
+        <v>-139.47</v>
       </c>
       <c r="C560" t="s">
         <v>4</v>
@@ -8228,7 +8228,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>148.41</v>
+        <v>-2.16</v>
       </c>
       <c r="C561" t="s">
         <v>4</v>
@@ -8242,7 +8242,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>143.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C562" t="s">
         <v>4</v>
@@ -8256,7 +8256,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>143.82</v>
+        <v>-2.47</v>
       </c>
       <c r="C563" t="s">
         <v>4</v>
@@ -8270,7 +8270,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>142</v>
+        <v>4.95</v>
       </c>
       <c r="C564" t="s">
         <v>4</v>
@@ -8284,7 +8284,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>152.73</v>
+        <v>-3</v>
       </c>
       <c r="C565" t="s">
         <v>4</v>
@@ -8298,7 +8298,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>130.43</v>
+        <v>9</v>
       </c>
       <c r="C566" t="s">
         <v>4</v>
@@ -8312,7 +8312,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>143</v>
+        <v>-7.46</v>
       </c>
       <c r="C567" t="s">
         <v>4</v>
@@ -8326,7 +8326,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>143.11</v>
+        <v>13.17</v>
       </c>
       <c r="C568" t="s">
         <v>4</v>
@@ -8340,7 +8340,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>141.82</v>
+        <v>25.39</v>
       </c>
       <c r="C569" t="s">
         <v>4</v>
@@ -8354,7 +8354,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>139.12</v>
+        <v>2.54</v>
       </c>
       <c r="C570" t="s">
         <v>4</v>
@@ -8368,7 +8368,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>138.7</v>
+        <v>-3.06</v>
       </c>
       <c r="C571" t="s">
         <v>4</v>
@@ -8382,7 +8382,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>137</v>
+        <v>-141.53</v>
       </c>
       <c r="C572" t="s">
         <v>4</v>
@@ -8396,7 +8396,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>124.74</v>
+        <v>-5.67</v>
       </c>
       <c r="C573" t="s">
         <v>4</v>
@@ -8410,7 +8410,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>141.65</v>
+        <v>13.76</v>
       </c>
       <c r="C574" t="s">
         <v>4</v>
@@ -8424,7 +8424,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>146.06</v>
+        <v>11.69</v>
       </c>
       <c r="C575" t="s">
         <v>4</v>
@@ -8438,7 +8438,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>139.19</v>
+        <v>5.18</v>
       </c>
       <c r="C576" t="s">
         <v>4</v>
@@ -8452,7 +8452,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>137.18</v>
+        <v>1.27</v>
       </c>
       <c r="C577" t="s">
         <v>4</v>
@@ -8466,7 +8466,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>131</v>
+        <v>2.29</v>
       </c>
       <c r="C578" t="s">
         <v>4</v>
@@ -8480,7 +8480,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>124.03</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="C579" t="s">
         <v>4</v>
@@ -8494,7 +8494,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>133.87</v>
+        <v>-8.880000000000001</v>
       </c>
       <c r="C580" t="s">
         <v>4</v>
@@ -8508,7 +8508,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>130.39</v>
+        <v>4.42</v>
       </c>
       <c r="C581" t="s">
         <v>4</v>
@@ -8522,7 +8522,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>149.31</v>
+        <v>-3.97</v>
       </c>
       <c r="C582" t="s">
         <v>4</v>
@@ -8536,7 +8536,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>139.21</v>
+        <v>-1.91</v>
       </c>
       <c r="C583" t="s">
         <v>4</v>
@@ -8550,7 +8550,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>146.15</v>
+        <v>11.04</v>
       </c>
       <c r="C584" t="s">
         <v>4</v>
@@ -8564,7 +8564,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>159.35</v>
+        <v>16.69</v>
       </c>
       <c r="C585" t="s">
         <v>4</v>
@@ -8578,7 +8578,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>132.17</v>
+        <v>-0.95</v>
       </c>
       <c r="C586" t="s">
         <v>4</v>
@@ -8592,7 +8592,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>143.69</v>
+        <v>-2.86</v>
       </c>
       <c r="C587" t="s">
         <v>4</v>
@@ -8606,7 +8606,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>139.13</v>
+        <v>-3.04</v>
       </c>
       <c r="C588" t="s">
         <v>4</v>
@@ -8620,7 +8620,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>129.01</v>
+        <v>-2.47</v>
       </c>
       <c r="C589" t="s">
         <v>4</v>
@@ -8634,7 +8634,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>148.4</v>
+        <v>-135.31</v>
       </c>
       <c r="C590" t="s">
         <v>4</v>
@@ -8648,7 +8648,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>128.54</v>
+        <v>-151.66</v>
       </c>
       <c r="C591" t="s">
         <v>4</v>
@@ -8662,7 +8662,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>149.12</v>
+        <v>-6.78</v>
       </c>
       <c r="C592" t="s">
         <v>4</v>
@@ -8676,7 +8676,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>148.99</v>
+        <v>7.16</v>
       </c>
       <c r="C593" t="s">
         <v>4</v>
@@ -8690,7 +8690,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>141.41</v>
+        <v>-144.23</v>
       </c>
       <c r="C594" t="s">
         <v>4</v>
@@ -8704,7 +8704,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>129.78</v>
+        <v>17.61</v>
       </c>
       <c r="C595" t="s">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>122.76</v>
+        <v>10.38</v>
       </c>
       <c r="C596" t="s">
         <v>4</v>
@@ -8732,7 +8732,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>139.84</v>
+        <v>13.81</v>
       </c>
       <c r="C597" t="s">
         <v>4</v>
@@ -8746,7 +8746,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>-5.49</v>
+        <v>16.83</v>
       </c>
       <c r="C598" t="s">
         <v>4</v>
@@ -8760,7 +8760,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>143.57</v>
+        <v>-8.16</v>
       </c>
       <c r="C599" t="s">
         <v>4</v>
@@ -8774,7 +8774,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>136.21</v>
+        <v>-0.58</v>
       </c>
       <c r="C600" t="s">
         <v>4</v>
@@ -8788,7 +8788,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>134.91</v>
+        <v>6.2</v>
       </c>
       <c r="C601" t="s">
         <v>4</v>
@@ -8802,7 +8802,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>142.5</v>
+        <v>8.27</v>
       </c>
       <c r="C602" t="s">
         <v>4</v>
@@ -8816,7 +8816,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>138.95</v>
+        <v>-2.3</v>
       </c>
       <c r="C603" t="s">
         <v>4</v>
@@ -8830,7 +8830,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>-9.949999999999999</v>
+        <v>-136.66</v>
       </c>
       <c r="C604" t="s">
         <v>4</v>
@@ -8844,7 +8844,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>144.72</v>
+        <v>-4.2</v>
       </c>
       <c r="C605" t="s">
         <v>4</v>
@@ -8858,7 +8858,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>135.76</v>
+        <v>-11.56</v>
       </c>
       <c r="C606" t="s">
         <v>4</v>
@@ -8872,7 +8872,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>0.6</v>
+        <v>7.39</v>
       </c>
       <c r="C607" t="s">
         <v>4</v>
@@ -8886,7 +8886,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>144.34</v>
+        <v>-1.7</v>
       </c>
       <c r="C608" t="s">
         <v>4</v>
@@ -8900,7 +8900,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>135.33</v>
+        <v>-0.33</v>
       </c>
       <c r="C609" t="s">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>-9.550000000000001</v>
+        <v>-4.84</v>
       </c>
       <c r="C610" t="s">
         <v>4</v>
@@ -8928,7 +8928,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>-4.88</v>
+        <v>-0.89</v>
       </c>
       <c r="C611" t="s">
         <v>4</v>
@@ -8942,7 +8942,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>141.66</v>
+        <v>26.73</v>
       </c>
       <c r="C612" t="s">
         <v>4</v>
@@ -8956,7 +8956,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>129.08</v>
+        <v>4.46</v>
       </c>
       <c r="C613" t="s">
         <v>4</v>
@@ -8970,7 +8970,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>2.99</v>
+        <v>-2.92</v>
       </c>
       <c r="C614" t="s">
         <v>4</v>
@@ -8984,7 +8984,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>141.06</v>
+        <v>-140.03</v>
       </c>
       <c r="C615" t="s">
         <v>4</v>
@@ -8998,7 +8998,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>-7.35</v>
+        <v>-4.41</v>
       </c>
       <c r="C616" t="s">
         <v>4</v>
@@ -9012,7 +9012,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>132.83</v>
+        <v>1.01</v>
       </c>
       <c r="C617" t="s">
         <v>4</v>
@@ -9026,7 +9026,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>134.03</v>
+        <v>7.28</v>
       </c>
       <c r="C618" t="s">
         <v>4</v>
@@ -9040,7 +9040,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>138.95</v>
+        <v>-4.66</v>
       </c>
       <c r="C619" t="s">
         <v>4</v>
@@ -9054,7 +9054,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>-29.95</v>
+        <v>2.8</v>
       </c>
       <c r="C620" t="s">
         <v>4</v>
@@ -9068,7 +9068,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>143.82</v>
+        <v>-4.4</v>
       </c>
       <c r="C621" t="s">
         <v>4</v>
@@ -9082,7 +9082,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>146.84</v>
+        <v>13.88</v>
       </c>
       <c r="C622" t="s">
         <v>4</v>
@@ -9096,7 +9096,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>-9.289999999999999</v>
+        <v>-0.76</v>
       </c>
       <c r="C623" t="s">
         <v>4</v>
@@ -9110,7 +9110,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>165.72</v>
+        <v>8.42</v>
       </c>
       <c r="C624" t="s">
         <v>4</v>
@@ -9124,7 +9124,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>132.89</v>
+        <v>5.71</v>
       </c>
       <c r="C625" t="s">
         <v>4</v>
@@ -9138,7 +9138,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>135.87</v>
+        <v>1.96</v>
       </c>
       <c r="C626" t="s">
         <v>4</v>
@@ -9152,7 +9152,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>134.88</v>
+        <v>-2.36</v>
       </c>
       <c r="C627" t="s">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>135.03</v>
+        <v>6.36</v>
       </c>
       <c r="C628" t="s">
         <v>4</v>
@@ -9180,7 +9180,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>133.22</v>
+        <v>2.03</v>
       </c>
       <c r="C629" t="s">
         <v>4</v>
@@ -9194,7 +9194,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>141.18</v>
+        <v>1.71</v>
       </c>
       <c r="C630" t="s">
         <v>4</v>
@@ -9208,7 +9208,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>133.09</v>
+        <v>7.02</v>
       </c>
       <c r="C631" t="s">
         <v>4</v>
@@ -9222,7 +9222,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>141.03</v>
+        <v>6.34</v>
       </c>
       <c r="C632" t="s">
         <v>4</v>
@@ -9236,7 +9236,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>144.92</v>
+        <v>-1.95</v>
       </c>
       <c r="C633" t="s">
         <v>4</v>
@@ -9250,7 +9250,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>1.33</v>
+        <v>4.65</v>
       </c>
       <c r="C634" t="s">
         <v>4</v>
@@ -9264,7 +9264,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>144.74</v>
+        <v>1.28</v>
       </c>
       <c r="C635" t="s">
         <v>4</v>
@@ -9278,7 +9278,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>149.55</v>
+        <v>20.65</v>
       </c>
       <c r="C636" t="s">
         <v>4</v>
@@ -9292,7 +9292,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>144.13</v>
+        <v>-126.55</v>
       </c>
       <c r="C637" t="s">
         <v>4</v>
@@ -9306,7 +9306,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>146.79</v>
+        <v>3.78</v>
       </c>
       <c r="C638" t="s">
         <v>4</v>
@@ -9320,7 +9320,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>146.07</v>
+        <v>-12.43</v>
       </c>
       <c r="C639" t="s">
         <v>4</v>
@@ -9334,7 +9334,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>143.16</v>
+        <v>1.79</v>
       </c>
       <c r="C640" t="s">
         <v>4</v>
@@ -9348,7 +9348,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>-8.85</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C641" t="s">
         <v>4</v>
@@ -9362,7 +9362,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>136.49</v>
+        <v>7.5</v>
       </c>
       <c r="C642" t="s">
         <v>4</v>
@@ -9376,7 +9376,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>146.73</v>
+        <v>3.26</v>
       </c>
       <c r="C643" t="s">
         <v>4</v>
@@ -9390,7 +9390,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>138.75</v>
+        <v>-1.58</v>
       </c>
       <c r="C644" t="s">
         <v>4</v>
@@ -9404,7 +9404,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>136.4</v>
+        <v>7.1</v>
       </c>
       <c r="C645" t="s">
         <v>4</v>
@@ -9418,7 +9418,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>126.59</v>
+        <v>1.01</v>
       </c>
       <c r="C646" t="s">
         <v>4</v>
@@ -9432,7 +9432,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>147.44</v>
+        <v>0.08</v>
       </c>
       <c r="C647" t="s">
         <v>4</v>
@@ -9446,7 +9446,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>127.79</v>
+        <v>3.73</v>
       </c>
       <c r="C648" t="s">
         <v>4</v>
@@ -9460,7 +9460,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>136.75</v>
+        <v>-2.87</v>
       </c>
       <c r="C649" t="s">
         <v>4</v>
@@ -9474,7 +9474,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>156.76</v>
+        <v>12.49</v>
       </c>
       <c r="C650" t="s">
         <v>4</v>
@@ -9488,7 +9488,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>140</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="C651" t="s">
         <v>4</v>
@@ -9502,7 +9502,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>136.51</v>
+        <v>15.7</v>
       </c>
       <c r="C652" t="s">
         <v>4</v>
@@ -9516,7 +9516,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>142.11</v>
+        <v>6.01</v>
       </c>
       <c r="C653" t="s">
         <v>4</v>
@@ -9530,7 +9530,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>119.6</v>
+        <v>-136.35</v>
       </c>
       <c r="C654" t="s">
         <v>4</v>
@@ -9544,7 +9544,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>159.27</v>
+        <v>3.46</v>
       </c>
       <c r="C655" t="s">
         <v>4</v>
@@ -9558,7 +9558,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>130.22</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="C656" t="s">
         <v>4</v>
@@ -9572,7 +9572,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>145.09</v>
+        <v>-7.81</v>
       </c>
       <c r="C657" t="s">
         <v>4</v>
@@ -9586,7 +9586,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>134.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C658" t="s">
         <v>4</v>
@@ -9600,7 +9600,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>131.94</v>
+        <v>10.95</v>
       </c>
       <c r="C659" t="s">
         <v>4</v>
@@ -9614,7 +9614,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>132.31</v>
+        <v>-8.68</v>
       </c>
       <c r="C660" t="s">
         <v>4</v>
@@ -9628,7 +9628,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>136.51</v>
+        <v>6.44</v>
       </c>
       <c r="C661" t="s">
         <v>4</v>
@@ -9642,7 +9642,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>148.94</v>
+        <v>6.06</v>
       </c>
       <c r="C662" t="s">
         <v>4</v>
@@ -9656,7 +9656,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>132.5</v>
+        <v>-137.92</v>
       </c>
       <c r="C663" t="s">
         <v>4</v>
@@ -9670,7 +9670,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>141.1</v>
+        <v>4.5</v>
       </c>
       <c r="C664" t="s">
         <v>4</v>
@@ -9684,7 +9684,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>156.53</v>
+        <v>-0.1</v>
       </c>
       <c r="C665" t="s">
         <v>4</v>
@@ -9698,7 +9698,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>150.52</v>
+        <v>5.46</v>
       </c>
       <c r="C666" t="s">
         <v>4</v>
@@ -9712,7 +9712,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>148.89</v>
+        <v>3.3</v>
       </c>
       <c r="C667" t="s">
         <v>4</v>
@@ -9726,7 +9726,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>137.46</v>
+        <v>7.45</v>
       </c>
       <c r="C668" t="s">
         <v>4</v>
@@ -9740,7 +9740,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>-1.04</v>
+        <v>17.41</v>
       </c>
       <c r="C669" t="s">
         <v>4</v>
@@ -9754,7 +9754,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>130.62</v>
+        <v>4.91</v>
       </c>
       <c r="C670" t="s">
         <v>4</v>
@@ -9768,7 +9768,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>-4.58</v>
+        <v>4.09</v>
       </c>
       <c r="C671" t="s">
         <v>4</v>
@@ -9782,7 +9782,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>132.77</v>
+        <v>-1.81</v>
       </c>
       <c r="C672" t="s">
         <v>4</v>
@@ -9796,7 +9796,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>140.05</v>
+        <v>-142.45</v>
       </c>
       <c r="C673" t="s">
         <v>4</v>
@@ -9810,7 +9810,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>-5.96</v>
+        <v>-2.81</v>
       </c>
       <c r="C674" t="s">
         <v>4</v>
@@ -9824,7 +9824,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>138.12</v>
+        <v>-4.22</v>
       </c>
       <c r="C675" t="s">
         <v>4</v>
@@ -9838,7 +9838,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>-2.46</v>
+        <v>13.18</v>
       </c>
       <c r="C676" t="s">
         <v>4</v>
@@ -9852,7 +9852,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>147.11</v>
+        <v>5.84</v>
       </c>
       <c r="C677" t="s">
         <v>4</v>
@@ -9866,7 +9866,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>2.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C678" t="s">
         <v>4</v>
@@ -9880,7 +9880,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>147.12</v>
+        <v>6.28</v>
       </c>
       <c r="C679" t="s">
         <v>4</v>
@@ -9894,7 +9894,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>0.05</v>
+        <v>7.06</v>
       </c>
       <c r="C680" t="s">
         <v>4</v>
@@ -9908,7 +9908,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>140.82</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C681" t="s">
         <v>4</v>
@@ -9922,7 +9922,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>-4.2</v>
+        <v>6.98</v>
       </c>
       <c r="C682" t="s">
         <v>4</v>
@@ -9936,7 +9936,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>148.27</v>
+        <v>-133.23</v>
       </c>
       <c r="C683" t="s">
         <v>4</v>
@@ -9950,7 +9950,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>136.96</v>
+        <v>18.74</v>
       </c>
       <c r="C684" t="s">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>140.1</v>
+        <v>3.99</v>
       </c>
       <c r="C685" t="s">
         <v>4</v>
@@ -9978,7 +9978,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>120.24</v>
+        <v>-128.61</v>
       </c>
       <c r="C686" t="s">
         <v>4</v>
@@ -9992,7 +9992,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>145.68</v>
+        <v>3.13</v>
       </c>
       <c r="C687" t="s">
         <v>4</v>
@@ -10006,7 +10006,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>136.54</v>
+        <v>-7.67</v>
       </c>
       <c r="C688" t="s">
         <v>4</v>
@@ -10020,7 +10020,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>132.59</v>
+        <v>-1.44</v>
       </c>
       <c r="C689" t="s">
         <v>4</v>
@@ -10034,7 +10034,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>137.7</v>
+        <v>15.21</v>
       </c>
       <c r="C690" t="s">
         <v>4</v>
@@ -10048,7 +10048,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>139.05</v>
+        <v>12.26</v>
       </c>
       <c r="C691" t="s">
         <v>4</v>
@@ -10062,7 +10062,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>134.52</v>
+        <v>7.59</v>
       </c>
       <c r="C692" t="s">
         <v>4</v>
@@ -10076,7 +10076,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>123.17</v>
+        <v>-139.93</v>
       </c>
       <c r="C693" t="s">
         <v>4</v>
@@ -10090,7 +10090,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>136.33</v>
+        <v>-7.39</v>
       </c>
       <c r="C694" t="s">
         <v>4</v>
@@ -10104,7 +10104,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>135.03</v>
+        <v>4.09</v>
       </c>
       <c r="C695" t="s">
         <v>4</v>
@@ -10118,7 +10118,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>138.73</v>
+        <v>-12.7</v>
       </c>
       <c r="C696" t="s">
         <v>4</v>
@@ -10132,7 +10132,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>141.64</v>
+        <v>-4.6</v>
       </c>
       <c r="C697" t="s">
         <v>4</v>
@@ -10146,7 +10146,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>136.51</v>
+        <v>-8.9</v>
       </c>
       <c r="C698" t="s">
         <v>4</v>
@@ -10160,7 +10160,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>137.49</v>
+        <v>5.54</v>
       </c>
       <c r="C699" t="s">
         <v>4</v>
@@ -10174,7 +10174,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>132.99</v>
+        <v>1.52</v>
       </c>
       <c r="C700" t="s">
         <v>4</v>
@@ -10188,7 +10188,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>139.35</v>
+        <v>9.94</v>
       </c>
       <c r="C701" t="s">
         <v>4</v>
@@ -10202,7 +10202,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>137.52</v>
+        <v>-140.45</v>
       </c>
       <c r="C702" t="s">
         <v>4</v>
@@ -10216,7 +10216,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>123.98</v>
+        <v>7.72</v>
       </c>
       <c r="C703" t="s">
         <v>4</v>
@@ -10230,7 +10230,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>155.97</v>
+        <v>5.57</v>
       </c>
       <c r="C704" t="s">
         <v>4</v>
@@ -10244,7 +10244,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>137.14</v>
+        <v>-4.15</v>
       </c>
       <c r="C705" t="s">
         <v>4</v>
@@ -10258,7 +10258,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>136.57</v>
+        <v>-1.69</v>
       </c>
       <c r="C706" t="s">
         <v>4</v>
@@ -10272,7 +10272,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>141.28</v>
+        <v>4.91</v>
       </c>
       <c r="C707" t="s">
         <v>4</v>
@@ -10286,7 +10286,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>143.22</v>
+        <v>3.76</v>
       </c>
       <c r="C708" t="s">
         <v>4</v>
@@ -10300,7 +10300,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>130.56</v>
+        <v>18.66</v>
       </c>
       <c r="C709" t="s">
         <v>4</v>
@@ -10314,7 +10314,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>-16.12</v>
+        <v>13.29</v>
       </c>
       <c r="C710" t="s">
         <v>4</v>
@@ -10328,7 +10328,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>136.18</v>
+        <v>4.79</v>
       </c>
       <c r="C711" t="s">
         <v>4</v>
@@ -10342,7 +10342,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>139.01</v>
+        <v>22.31</v>
       </c>
       <c r="C712" t="s">
         <v>4</v>
@@ -10356,7 +10356,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>138.92</v>
+        <v>2.89</v>
       </c>
       <c r="C713" t="s">
         <v>4</v>
@@ -10370,7 +10370,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>143.69</v>
+        <v>-2.91</v>
       </c>
       <c r="C714" t="s">
         <v>4</v>
@@ -10384,7 +10384,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>127.9</v>
+        <v>1.14</v>
       </c>
       <c r="C715" t="s">
         <v>4</v>
@@ -10398,7 +10398,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>129.85</v>
+        <v>12.94</v>
       </c>
       <c r="C716" t="s">
         <v>4</v>
@@ -10412,7 +10412,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>143.43</v>
+        <v>4.16</v>
       </c>
       <c r="C717" t="s">
         <v>4</v>
@@ -10426,7 +10426,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>148.21</v>
+        <v>-145.82</v>
       </c>
       <c r="C718" t="s">
         <v>4</v>
@@ -10440,7 +10440,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>138.43</v>
+        <v>-144.53</v>
       </c>
       <c r="C719" t="s">
         <v>4</v>
@@ -10454,7 +10454,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>139.06</v>
+        <v>12.04</v>
       </c>
       <c r="C720" t="s">
         <v>4</v>
@@ -10468,7 +10468,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>152.08</v>
+        <v>-11.88</v>
       </c>
       <c r="C721" t="s">
         <v>4</v>
@@ -10482,7 +10482,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>122.42</v>
+        <v>-154.82</v>
       </c>
       <c r="C722" t="s">
         <v>4</v>
@@ -10496,7 +10496,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>127.36</v>
+        <v>-1.5</v>
       </c>
       <c r="C723" t="s">
         <v>4</v>
@@ -10510,7 +10510,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>134.37</v>
+        <v>-127.19</v>
       </c>
       <c r="C724" t="s">
         <v>4</v>
@@ -10524,7 +10524,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>0.37</v>
+        <v>-11.43</v>
       </c>
       <c r="C725" t="s">
         <v>4</v>
@@ -10538,7 +10538,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>127.79</v>
+        <v>6.4</v>
       </c>
       <c r="C726" t="s">
         <v>4</v>
@@ -10552,7 +10552,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>142</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C727" t="s">
         <v>4</v>
@@ -10566,7 +10566,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>140.81</v>
+        <v>13.51</v>
       </c>
       <c r="C728" t="s">
         <v>4</v>
@@ -10580,7 +10580,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>139.68</v>
+        <v>-1.82</v>
       </c>
       <c r="C729" t="s">
         <v>4</v>
@@ -10594,7 +10594,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>146.12</v>
+        <v>5.7</v>
       </c>
       <c r="C730" t="s">
         <v>4</v>
@@ -10608,7 +10608,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>148.56</v>
+        <v>7.62</v>
       </c>
       <c r="C731" t="s">
         <v>4</v>
@@ -10622,7 +10622,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>137.86</v>
+        <v>9.23</v>
       </c>
       <c r="C732" t="s">
         <v>4</v>
@@ -10636,7 +10636,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>149.75</v>
+        <v>11.14</v>
       </c>
       <c r="C733" t="s">
         <v>4</v>
@@ -10650,7 +10650,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>138.22</v>
+        <v>2.64</v>
       </c>
       <c r="C734" t="s">
         <v>4</v>
@@ -10664,7 +10664,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>139.24</v>
+        <v>11.98</v>
       </c>
       <c r="C735" t="s">
         <v>4</v>
@@ -10678,7 +10678,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>139.88</v>
+        <v>-0.45</v>
       </c>
       <c r="C736" t="s">
         <v>4</v>
@@ -10692,7 +10692,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>147.43</v>
+        <v>-143.66</v>
       </c>
       <c r="C737" t="s">
         <v>4</v>
@@ -10706,7 +10706,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>137.73</v>
+        <v>6.49</v>
       </c>
       <c r="C738" t="s">
         <v>4</v>
@@ -10720,7 +10720,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>139.52</v>
+        <v>-17.52</v>
       </c>
       <c r="C739" t="s">
         <v>4</v>
@@ -10734,7 +10734,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>133.49</v>
+        <v>-137.7</v>
       </c>
       <c r="C740" t="s">
         <v>4</v>
@@ -10748,7 +10748,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>140</v>
+        <v>13.08</v>
       </c>
       <c r="C741" t="s">
         <v>4</v>
@@ -10762,7 +10762,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>151.79</v>
+        <v>4.75</v>
       </c>
       <c r="C742" t="s">
         <v>4</v>
@@ -10776,7 +10776,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>138.26</v>
+        <v>13.22</v>
       </c>
       <c r="C743" t="s">
         <v>4</v>
@@ -10790,7 +10790,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>149.47</v>
+        <v>-0.44</v>
       </c>
       <c r="C744" t="s">
         <v>4</v>
@@ -10804,7 +10804,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>146.95</v>
+        <v>2.58</v>
       </c>
       <c r="C745" t="s">
         <v>4</v>
@@ -10818,7 +10818,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>140.75</v>
+        <v>-12.34</v>
       </c>
       <c r="C746" t="s">
         <v>4</v>
@@ -10832,7 +10832,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>139.64</v>
+        <v>16.51</v>
       </c>
       <c r="C747" t="s">
         <v>4</v>
@@ -10846,7 +10846,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>135.06</v>
+        <v>1.62</v>
       </c>
       <c r="C748" t="s">
         <v>4</v>
@@ -10860,7 +10860,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>138.43</v>
+        <v>-4.53</v>
       </c>
       <c r="C749" t="s">
         <v>4</v>
@@ -10874,7 +10874,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>140.69</v>
+        <v>10.78</v>
       </c>
       <c r="C750" t="s">
         <v>4</v>
@@ -10888,7 +10888,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>124.9</v>
+        <v>-149.82</v>
       </c>
       <c r="C751" t="s">
         <v>4</v>
@@ -10902,7 +10902,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>-6.01</v>
+        <v>1.06</v>
       </c>
       <c r="C752" t="s">
         <v>4</v>
@@ -10916,7 +10916,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>136.45</v>
+        <v>3.36</v>
       </c>
       <c r="C753" t="s">
         <v>4</v>
@@ -10930,7 +10930,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>144.84</v>
+        <v>3.6</v>
       </c>
       <c r="C754" t="s">
         <v>4</v>
@@ -10944,7 +10944,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>145.06</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C755" t="s">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>128.04</v>
+        <v>-0.13</v>
       </c>
       <c r="C756" t="s">
         <v>4</v>
@@ -10972,7 +10972,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>140.14</v>
+        <v>14.95</v>
       </c>
       <c r="C757" t="s">
         <v>4</v>
@@ -10986,7 +10986,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>132.39</v>
+        <v>5.34</v>
       </c>
       <c r="C758" t="s">
         <v>4</v>
@@ -11000,7 +11000,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>145.09</v>
+        <v>5.12</v>
       </c>
       <c r="C759" t="s">
         <v>4</v>
@@ -11014,7 +11014,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>144.5</v>
+        <v>12.8</v>
       </c>
       <c r="C760" t="s">
         <v>4</v>
@@ -11028,7 +11028,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>151.74</v>
+        <v>13.65</v>
       </c>
       <c r="C761" t="s">
         <v>4</v>
@@ -11042,7 +11042,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>146.02</v>
+        <v>4.76</v>
       </c>
       <c r="C762" t="s">
         <v>4</v>
@@ -11056,7 +11056,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>126.87</v>
+        <v>-4.59</v>
       </c>
       <c r="C763" t="s">
         <v>4</v>
@@ -11070,7 +11070,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>149.47</v>
+        <v>8.67</v>
       </c>
       <c r="C764" t="s">
         <v>4</v>
@@ -11084,7 +11084,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>127.1</v>
+        <v>0.38</v>
       </c>
       <c r="C765" t="s">
         <v>4</v>
@@ -11098,7 +11098,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>129.33</v>
+        <v>-144.97</v>
       </c>
       <c r="C766" t="s">
         <v>4</v>
@@ -11112,7 +11112,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>143.77</v>
+        <v>11.64</v>
       </c>
       <c r="C767" t="s">
         <v>4</v>
@@ -11126,7 +11126,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>154.41</v>
+        <v>14.69</v>
       </c>
       <c r="C768" t="s">
         <v>4</v>
@@ -11140,7 +11140,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>139.3</v>
+        <v>7</v>
       </c>
       <c r="C769" t="s">
         <v>4</v>
@@ -11154,7 +11154,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>134.75</v>
+        <v>-3.41</v>
       </c>
       <c r="C770" t="s">
         <v>4</v>
@@ -11168,7 +11168,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>136.54</v>
+        <v>12.77</v>
       </c>
       <c r="C771" t="s">
         <v>4</v>
@@ -11182,7 +11182,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>148.5</v>
+        <v>5.21</v>
       </c>
       <c r="C772" t="s">
         <v>4</v>
@@ -11196,7 +11196,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>131.27</v>
+        <v>1.71</v>
       </c>
       <c r="C773" t="s">
         <v>4</v>
@@ -11210,7 +11210,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>135.87</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C774" t="s">
         <v>4</v>
@@ -11224,7 +11224,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>148.73</v>
+        <v>13.2</v>
       </c>
       <c r="C775" t="s">
         <v>4</v>
@@ -11238,7 +11238,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>151.72</v>
+        <v>15.48</v>
       </c>
       <c r="C776" t="s">
         <v>4</v>
@@ -11252,7 +11252,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>140.59</v>
+        <v>-128.3</v>
       </c>
       <c r="C777" t="s">
         <v>4</v>
@@ -11266,7 +11266,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>127.96</v>
+        <v>-142.04</v>
       </c>
       <c r="C778" t="s">
         <v>4</v>
@@ -11280,7 +11280,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>139.4</v>
+        <v>-0.02</v>
       </c>
       <c r="C779" t="s">
         <v>4</v>
@@ -11294,7 +11294,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>-4.28</v>
+        <v>1.2</v>
       </c>
       <c r="C780" t="s">
         <v>4</v>
@@ -11308,7 +11308,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>131.16</v>
+        <v>11.07</v>
       </c>
       <c r="C781" t="s">
         <v>4</v>
@@ -11322,7 +11322,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>138.64</v>
+        <v>11.44</v>
       </c>
       <c r="C782" t="s">
         <v>4</v>
@@ -11336,7 +11336,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>127.53</v>
+        <v>-3.3</v>
       </c>
       <c r="C783" t="s">
         <v>4</v>
@@ -11350,7 +11350,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>131.46</v>
+        <v>1.75</v>
       </c>
       <c r="C784" t="s">
         <v>4</v>
@@ -11364,7 +11364,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>133.58</v>
+        <v>-8.35</v>
       </c>
       <c r="C785" t="s">
         <v>4</v>
@@ -11378,7 +11378,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>155.8</v>
+        <v>-9.16</v>
       </c>
       <c r="C786" t="s">
         <v>4</v>
@@ -11392,7 +11392,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>146.8</v>
+        <v>-6.7</v>
       </c>
       <c r="C787" t="s">
         <v>4</v>
@@ -11406,7 +11406,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>146.2</v>
+        <v>15.56</v>
       </c>
       <c r="C788" t="s">
         <v>4</v>
@@ -11420,7 +11420,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>143.69</v>
+        <v>-13.03</v>
       </c>
       <c r="C789" t="s">
         <v>4</v>
@@ -11434,7 +11434,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>142.99</v>
+        <v>6.1</v>
       </c>
       <c r="C790" t="s">
         <v>4</v>
@@ -11448,7 +11448,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>133.01</v>
+        <v>0.53</v>
       </c>
       <c r="C791" t="s">
         <v>4</v>
@@ -11462,7 +11462,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>136.73</v>
+        <v>15.25</v>
       </c>
       <c r="C792" t="s">
         <v>4</v>
@@ -11476,7 +11476,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>144.97</v>
+        <v>-17.06</v>
       </c>
       <c r="C793" t="s">
         <v>4</v>
@@ -11490,7 +11490,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>124.01</v>
+        <v>-134.86</v>
       </c>
       <c r="C794" t="s">
         <v>4</v>
@@ -11504,7 +11504,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>133.9</v>
+        <v>11.28</v>
       </c>
       <c r="C795" t="s">
         <v>4</v>
@@ -11518,7 +11518,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>133.06</v>
+        <v>-1.57</v>
       </c>
       <c r="C796" t="s">
         <v>4</v>
@@ -11532,7 +11532,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>132.45</v>
+        <v>-150.2</v>
       </c>
       <c r="C797" t="s">
         <v>4</v>
@@ -11546,7 +11546,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>128.64</v>
+        <v>24.5</v>
       </c>
       <c r="C798" t="s">
         <v>4</v>
@@ -11560,7 +11560,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>143.43</v>
+        <v>16.64</v>
       </c>
       <c r="C799" t="s">
         <v>4</v>
@@ -11574,7 +11574,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>125.83</v>
+        <v>-139.98</v>
       </c>
       <c r="C800" t="s">
         <v>4</v>
@@ -11588,7 +11588,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>129.13</v>
+        <v>20.77</v>
       </c>
       <c r="C801" t="s">
         <v>4</v>
